--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationresultslaboratory.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationresultslaboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:59:53+00:00</t>
+    <t>2024-05-29T06:58:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This AT IPS profile for the Observation resource is derived from the general Observation resource in absence of a corresponding profile in the HL7® Austria FHIR® Core Implementation Guide and also ensures IPS conformity via the IPS profile referenced by the so-called imposeProfile extension.</t>
+    <t>This AT IPS profile for the Observation resource is derived from the "AtIpsObservationResults" profile and also ensures IPS conformity via the IPS profile referenced by the so-called [`imposeProfile`](http://hl7.org/fhir/StructureDefinition/structuredefinition-imposeProfile) extension.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>81</v>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationresultslaboratory.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationresultslaboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T06:58:17+00:00</t>
+    <t>2024-05-29T12:02:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationresultslaboratory.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationresultslaboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T12:02:27+00:00</t>
+    <t>2024-06-19T12:04:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationresultslaboratory.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationresultslaboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:04:55+00:00</t>
+    <t>2024-10-16T10:23:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1303,7 +1303,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
